--- a/Jalon 1/Diagramme de Gantt de suivi de date1.xlsx
+++ b/Jalon 1/Diagramme de Gantt de suivi de date1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB393372-669A-4AD9-9F2C-02DED430CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E10688-CBBB-4C5B-82D5-09E8396F8DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vert" sheetId="18" r:id="rId1"/>
@@ -38,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
-  <si>
-    <t>Titre du projet</t>
-  </si>
-  <si>
-    <t>Nom de la société</t>
-  </si>
-  <si>
-    <t>Chef de projet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Date de début du projet :</t>
   </si>
@@ -56,9 +47,6 @@
   </si>
   <si>
     <t>Description du jalon</t>
-  </si>
-  <si>
-    <t>Titre 2</t>
   </si>
   <si>
     <t>Titre 3</t>
@@ -143,6 +131,72 @@
   </si>
   <si>
     <t>Nolan / Thomas / Nicolas</t>
+  </si>
+  <si>
+    <t>Jalon 2</t>
+  </si>
+  <si>
+    <t>Diagramme de cas d'utilisation</t>
+  </si>
+  <si>
+    <t>Nolan / Nicolas / thomas</t>
+  </si>
+  <si>
+    <t>Regles de nommage des variables</t>
+  </si>
+  <si>
+    <t>Description textuelle des cas d'utilisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codage du site </t>
+  </si>
+  <si>
+    <t>Utilisation de Trigger</t>
+  </si>
+  <si>
+    <t>Nicolas / Thomas</t>
+  </si>
+  <si>
+    <t>Nicolas / Thomas / Nolan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mise en place du MVC</t>
+  </si>
+  <si>
+    <t>Thomas / Nolan</t>
+  </si>
+  <si>
+    <t>Mise à jour GANT</t>
+  </si>
+  <si>
+    <t>Maquettage du site / IHM</t>
+  </si>
+  <si>
+    <t>Test sur la base de donnée</t>
+  </si>
+  <si>
+    <t>Implémentation des clés étrangères et primaire</t>
+  </si>
+  <si>
+    <t>Thomas / nicolas</t>
+  </si>
+  <si>
+    <t>Mise à jour de la BDD</t>
+  </si>
+  <si>
+    <t>Nicolas / Nolan / Thomas</t>
+  </si>
+  <si>
+    <t>Page pour connexion avec la BDD</t>
+  </si>
+  <si>
+    <t>Nolan et Thomas</t>
+  </si>
+  <si>
+    <t>Configuration du GIT Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJET AP </t>
   </si>
 </sst>
 </file>
@@ -1234,13 +1288,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="8" tint="-0.499984740745262"/>
       </font>
@@ -1280,6 +1327,13 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1606,8 +1660,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EE7DA96-2148-4820-AB9C-230AD0CA6702}" name="Jalons34" displayName="Jalons34" ref="B8:F35" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B8:F35" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EE7DA96-2148-4820-AB9C-230AD0CA6702}" name="Jalons34" displayName="Jalons34" ref="B8:F45" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B8:F45" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1896,10 +1950,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK38"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1920,7 +1974,7 @@
     <row r="2" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
       <c r="B2" s="67" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="41"/>
@@ -1986,9 +2040,7 @@
     </row>
     <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="63" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="63"/>
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -2052,9 +2104,7 @@
       <c r="BK3" s="61"/>
     </row>
     <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="63" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" s="63"/>
       <c r="E4" s="42"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -2066,7 +2116,7 @@
     <row r="5" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="50" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">IFERROR(IF(MIN(Jalons34[Début])=0,TODAY(),MIN(Jalons34[Début])),TODAY())</f>
@@ -2091,7 +2141,7 @@
     <row r="6" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="52" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="44">
         <v>1</v>
@@ -2101,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I6" s="64"/>
       <c r="J6" s="64"/>
@@ -2117,7 +2167,7 @@
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
       <c r="V6" s="24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W6" s="24"/>
       <c r="X6" s="24"/>
@@ -2147,7 +2197,7 @@
       <c r="AV6" s="24"/>
       <c r="AW6" s="24"/>
       <c r="AX6" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AY6" s="24"/>
       <c r="AZ6" s="24"/>
@@ -2397,83 +2447,83 @@
     <row r="8" spans="1:63" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="N8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="O8" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="46" t="s">
+      <c r="V8" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="AB8" s="46" t="s">
         <v>25</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="X8" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y8" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z8" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="46" t="s">
-        <v>29</v>
       </c>
       <c r="AC8" s="46"/>
       <c r="AD8" s="46"/>
@@ -2577,7 +2627,7 @@
     <row r="10" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="66"/>
@@ -2812,10 +2862,10 @@
     <row r="11" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="39">
         <v>1</v>
@@ -3055,13 +3105,13 @@
     <row r="12" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="39">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E12" s="38">
         <v>44459</v>
@@ -3298,10 +3348,10 @@
     <row r="13" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="39">
         <v>1</v>
@@ -3541,10 +3591,10 @@
     <row r="14" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="39">
         <v>1</v>
@@ -3784,10 +3834,10 @@
     <row r="15" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="39">
         <v>1</v>
@@ -4027,13 +4077,13 @@
     <row r="16" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="38">
         <v>44466</v>
@@ -4099,711 +4149,237 @@
       <c r="BJ16" s="26"/>
       <c r="BK16" s="26"/>
     </row>
-    <row r="17" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="36"/>
+    <row r="17" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38">
+        <v>44466</v>
+      </c>
+      <c r="F17" s="36">
+        <v>1</v>
+      </c>
       <c r="G17" s="27"/>
-      <c r="H17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK17" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="26"/>
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="26"/>
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="26"/>
     </row>
     <row r="18" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="36"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
+      <c r="E18" s="38">
+        <v>44473</v>
+      </c>
+      <c r="F18" s="36">
+        <v>1</v>
+      </c>
       <c r="G18" s="27"/>
-      <c r="H18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK18" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="26"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="26"/>
+      <c r="BD18" s="26"/>
+      <c r="BE18" s="26"/>
+      <c r="BF18" s="26"/>
+      <c r="BG18" s="26"/>
+      <c r="BH18" s="26"/>
+      <c r="BI18" s="26"/>
+      <c r="BJ18" s="26"/>
+      <c r="BK18" s="26"/>
     </row>
     <row r="19" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="36"/>
+      <c r="B19" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1</v>
+      </c>
+      <c r="E19" s="38">
+        <v>44480</v>
+      </c>
+      <c r="F19" s="36">
+        <v>1</v>
+      </c>
       <c r="G19" s="27"/>
-      <c r="H19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK19" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E19,$F19=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="26"/>
+      <c r="AY19" s="26"/>
+      <c r="AZ19" s="26"/>
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="26"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="26"/>
+      <c r="BE19" s="26"/>
+      <c r="BF19" s="26"/>
+      <c r="BG19" s="26"/>
+      <c r="BH19" s="26"/>
+      <c r="BI19" s="26"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="26"/>
     </row>
-    <row r="20" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="15"/>
+    <row r="20" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11"/>
       <c r="D20" s="39"/>
       <c r="E20" s="38"/>
       <c r="F20" s="36"/>
@@ -5033,248 +4609,103 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="36"/>
+    <row r="21" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
+      <c r="E21" s="38">
+        <v>44480</v>
+      </c>
+      <c r="F21" s="36">
+        <v>1</v>
+      </c>
       <c r="G21" s="27"/>
-      <c r="H21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK21" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="26"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="26"/>
+      <c r="BE21" s="26"/>
+      <c r="BF21" s="26"/>
+      <c r="BG21" s="26"/>
+      <c r="BH21" s="26"/>
+      <c r="BI21" s="26"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="26"/>
     </row>
     <row r="22" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="36"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="39">
+        <v>1</v>
+      </c>
+      <c r="E22" s="38">
+        <v>44480</v>
+      </c>
+      <c r="F22" s="36">
+        <v>1</v>
+      </c>
       <c r="G22" s="27"/>
-      <c r="H22" s="26"/>
+      <c r="H22" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
       <c r="I22" s="26" t="str">
         <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E22,$F22=1),Marqueur_Jalon,"")),"")</f>
         <v/>
@@ -5496,15 +4927,23 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="39">
+        <v>1</v>
+      </c>
+      <c r="E23" s="38">
+        <v>44480</v>
+      </c>
+      <c r="F23" s="36">
+        <v>1</v>
+      </c>
       <c r="G23" s="27"/>
       <c r="H23" s="26" t="str">
         <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E23,$F23=1),Marqueur_Jalon,"")),"")</f>
@@ -5733,11 +5172,21 @@
     </row>
     <row r="24" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="39">
+        <v>1</v>
+      </c>
+      <c r="E24" s="38">
+        <v>44489</v>
+      </c>
+      <c r="F24" s="36">
+        <v>2</v>
+      </c>
       <c r="G24" s="27"/>
       <c r="H24" s="26" t="str">
         <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
@@ -5966,11 +5415,21 @@
     </row>
     <row r="25" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="39">
+        <v>1</v>
+      </c>
+      <c r="E25" s="38">
+        <v>44515</v>
+      </c>
+      <c r="F25" s="36">
+        <v>1</v>
+      </c>
       <c r="G25" s="27"/>
       <c r="H25" s="26" t="str">
         <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E25,$F25=1),Marqueur_Jalon,"")),"")</f>
@@ -6199,482 +5658,173 @@
     </row>
     <row r="26" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="39">
+        <v>1</v>
+      </c>
+      <c r="E26" s="38">
+        <v>44515</v>
+      </c>
+      <c r="F26" s="36">
+        <v>1</v>
+      </c>
       <c r="G26" s="27"/>
-      <c r="H26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK26" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E26,$F26=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="26"/>
+      <c r="BG26" s="26"/>
+      <c r="BH26" s="26"/>
+      <c r="BI26" s="26"/>
+      <c r="BJ26" s="26"/>
+      <c r="BK26" s="26"/>
     </row>
     <row r="27" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="38">
+        <v>44522</v>
+      </c>
+      <c r="F27" s="36">
+        <v>3</v>
+      </c>
       <c r="G27" s="27"/>
-      <c r="H27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK27" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E27,$F27=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="26"/>
+      <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="26"/>
+      <c r="BG27" s="26"/>
+      <c r="BH27" s="26"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="26"/>
+      <c r="BK27" s="26"/>
     </row>
     <row r="28" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="E28" s="38">
+        <v>44522</v>
+      </c>
+      <c r="F28" s="36">
+        <v>3</v>
+      </c>
       <c r="G28" s="27"/>
-      <c r="H28" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H28" s="26"/>
       <c r="I28" s="26" t="str">
         <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E28,$F28=1),Marqueur_Jalon,"")),"")</f>
         <v/>
@@ -6896,478 +6046,160 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="39">
+        <v>1</v>
+      </c>
+      <c r="E29" s="38">
+        <v>44522</v>
+      </c>
+      <c r="F29" s="36">
+        <v>2</v>
+      </c>
       <c r="G29" s="27"/>
-      <c r="H29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK29" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E29,$F29=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="26"/>
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+      <c r="BC29" s="26"/>
+      <c r="BD29" s="26"/>
+      <c r="BE29" s="26"/>
+      <c r="BF29" s="26"/>
+      <c r="BG29" s="26"/>
+      <c r="BH29" s="26"/>
+      <c r="BI29" s="26"/>
+      <c r="BJ29" s="26"/>
+      <c r="BK29" s="26"/>
     </row>
     <row r="30" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="39">
+        <v>1</v>
+      </c>
+      <c r="E30" s="38">
+        <v>44522</v>
+      </c>
+      <c r="F30" s="36">
+        <v>1</v>
+      </c>
       <c r="G30" s="27"/>
-      <c r="H30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK30" s="26" t="str">
-        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="26"/>
+      <c r="AY30" s="26"/>
+      <c r="AZ30" s="26"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="26"/>
+      <c r="BC30" s="26"/>
+      <c r="BD30" s="26"/>
+      <c r="BE30" s="26"/>
+      <c r="BF30" s="26"/>
+      <c r="BG30" s="26"/>
+      <c r="BH30" s="26"/>
+      <c r="BI30" s="26"/>
+      <c r="BJ30" s="26"/>
+      <c r="BK30" s="26"/>
     </row>
     <row r="31" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="45"/>
-      <c r="C31" s="15"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="39"/>
       <c r="E31" s="38"/>
       <c r="F31" s="36"/>
@@ -7432,7 +6264,7 @@
     <row r="32" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="45"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="39"/>
       <c r="E32" s="38"/>
       <c r="F32" s="36"/>
@@ -7494,140 +6326,478 @@
       <c r="BJ32" s="26"/>
       <c r="BK32" s="26"/>
     </row>
-    <row r="33" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="39"/>
       <c r="E33" s="38"/>
       <c r="F33" s="36"/>
       <c r="G33" s="27"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="26"/>
-      <c r="AN33" s="26"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="26"/>
-      <c r="AR33" s="26"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="AU33" s="26"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="26"/>
-      <c r="AY33" s="26"/>
-      <c r="AZ33" s="26"/>
-      <c r="BA33" s="26"/>
-      <c r="BB33" s="26"/>
-      <c r="BC33" s="26"/>
-      <c r="BD33" s="26"/>
-      <c r="BE33" s="26"/>
-      <c r="BF33" s="26"/>
-      <c r="BG33" s="26"/>
-      <c r="BH33" s="26"/>
-      <c r="BI33" s="26"/>
-      <c r="BJ33" s="26"/>
-      <c r="BK33" s="26"/>
+      <c r="H33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK33" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E33,$F33=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="45"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="39"/>
       <c r="E34" s="38"/>
       <c r="F34" s="36"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26"/>
-      <c r="AQ34" s="26"/>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26"/>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="26"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26"/>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="26"/>
+      <c r="H34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK34" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E34,$F34=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="35" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="39"/>
       <c r="E35" s="38"/>
       <c r="F35" s="36"/>
@@ -7857,86 +7027,1746 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="16"/>
-      <c r="AG36" s="16"/>
-      <c r="AH36" s="16"/>
-      <c r="AI36" s="16"/>
-      <c r="AJ36" s="16"/>
-      <c r="AK36" s="16"/>
-      <c r="AL36" s="16"/>
-      <c r="AM36" s="16"/>
-      <c r="AN36" s="16"/>
-      <c r="AO36" s="16"/>
-      <c r="AP36" s="16"/>
-      <c r="AQ36" s="16"/>
-      <c r="AR36" s="16"/>
-      <c r="AS36" s="16"/>
-      <c r="AT36" s="16"/>
-      <c r="AU36" s="16"/>
-      <c r="AV36" s="16"/>
-      <c r="AW36" s="16"/>
-      <c r="AX36" s="16"/>
-      <c r="AY36" s="16"/>
-      <c r="AZ36" s="16"/>
-      <c r="BA36" s="16"/>
-      <c r="BB36" s="16"/>
-      <c r="BC36" s="16"/>
-      <c r="BD36" s="16"/>
-      <c r="BE36" s="16"/>
-      <c r="BF36" s="16"/>
-      <c r="BG36" s="16"/>
-      <c r="BH36" s="16"/>
-      <c r="BI36" s="16"/>
-      <c r="BJ36" s="16"/>
-      <c r="BK36" s="16"/>
+    <row r="36" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK36" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E36,$F36=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="37" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="4"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="3"/>
+    <row r="37" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK37" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E37,$F37=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="38" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="5"/>
+    <row r="38" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK38" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E38,$F38=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK39" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E39,$F39=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK40" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="26"/>
+      <c r="AR41" s="26"/>
+      <c r="AS41" s="26"/>
+      <c r="AT41" s="26"/>
+      <c r="AU41" s="26"/>
+      <c r="AV41" s="26"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="26"/>
+      <c r="AY41" s="26"/>
+      <c r="AZ41" s="26"/>
+      <c r="BA41" s="26"/>
+      <c r="BB41" s="26"/>
+      <c r="BC41" s="26"/>
+      <c r="BD41" s="26"/>
+      <c r="BE41" s="26"/>
+      <c r="BF41" s="26"/>
+      <c r="BG41" s="26"/>
+      <c r="BH41" s="26"/>
+      <c r="BI41" s="26"/>
+      <c r="BJ41" s="26"/>
+      <c r="BK41" s="26"/>
+    </row>
+    <row r="42" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="26"/>
+      <c r="AN42" s="26"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="26"/>
+      <c r="AR42" s="26"/>
+      <c r="AS42" s="26"/>
+      <c r="AT42" s="26"/>
+      <c r="AU42" s="26"/>
+      <c r="AV42" s="26"/>
+      <c r="AW42" s="26"/>
+      <c r="AX42" s="26"/>
+      <c r="AY42" s="26"/>
+      <c r="AZ42" s="26"/>
+      <c r="BA42" s="26"/>
+      <c r="BB42" s="26"/>
+      <c r="BC42" s="26"/>
+      <c r="BD42" s="26"/>
+      <c r="BE42" s="26"/>
+      <c r="BF42" s="26"/>
+      <c r="BG42" s="26"/>
+      <c r="BH42" s="26"/>
+      <c r="BI42" s="26"/>
+      <c r="BJ42" s="26"/>
+      <c r="BK42" s="26"/>
+    </row>
+    <row r="43" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="26"/>
+      <c r="AL43" s="26"/>
+      <c r="AM43" s="26"/>
+      <c r="AN43" s="26"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="26"/>
+      <c r="AR43" s="26"/>
+      <c r="AS43" s="26"/>
+      <c r="AT43" s="26"/>
+      <c r="AU43" s="26"/>
+      <c r="AV43" s="26"/>
+      <c r="AW43" s="26"/>
+      <c r="AX43" s="26"/>
+      <c r="AY43" s="26"/>
+      <c r="AZ43" s="26"/>
+      <c r="BA43" s="26"/>
+      <c r="BB43" s="26"/>
+      <c r="BC43" s="26"/>
+      <c r="BD43" s="26"/>
+      <c r="BE43" s="26"/>
+      <c r="BF43" s="26"/>
+      <c r="BG43" s="26"/>
+      <c r="BH43" s="26"/>
+      <c r="BI43" s="26"/>
+      <c r="BJ43" s="26"/>
+      <c r="BK43" s="26"/>
+    </row>
+    <row r="44" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="26"/>
+      <c r="AS44" s="26"/>
+      <c r="AT44" s="26"/>
+      <c r="AU44" s="26"/>
+      <c r="AV44" s="26"/>
+      <c r="AW44" s="26"/>
+      <c r="AX44" s="26"/>
+      <c r="AY44" s="26"/>
+      <c r="AZ44" s="26"/>
+      <c r="BA44" s="26"/>
+      <c r="BB44" s="26"/>
+      <c r="BC44" s="26"/>
+      <c r="BD44" s="26"/>
+      <c r="BE44" s="26"/>
+      <c r="BF44" s="26"/>
+      <c r="BG44" s="26"/>
+      <c r="BH44" s="26"/>
+      <c r="BI44" s="26"/>
+      <c r="BJ44" s="26"/>
+      <c r="BK44" s="26"/>
+    </row>
+    <row r="45" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(H$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(I$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(J$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(K$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(L$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(M$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(N$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(O$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(P$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Q$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(R$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(S$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(T$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(U$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(V$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(W$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(X$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Y$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(Z$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AA$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AB$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AC$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AD$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AE$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AF$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AG$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AH$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AI$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AJ$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AK$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AL$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AM$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AN$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AO$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AP$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AQ$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AR$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AS$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AT$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AU$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AV$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AW$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AX$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AY$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(AZ$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BA$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BB$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BC$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BD$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BE$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BF$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BG$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BH$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BI$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BJ$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK45" s="26" t="str">
+        <f>IFERROR(IF(LEN(Jalons34[[#This Row],[Jours]])=0,"",IF(AND(BK$7=$E45,$F45=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+      <c r="B46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="16"/>
+      <c r="AI46" s="16"/>
+      <c r="AJ46" s="16"/>
+      <c r="AK46" s="16"/>
+      <c r="AL46" s="16"/>
+      <c r="AM46" s="16"/>
+      <c r="AN46" s="16"/>
+      <c r="AO46" s="16"/>
+      <c r="AP46" s="16"/>
+      <c r="AQ46" s="16"/>
+      <c r="AR46" s="16"/>
+      <c r="AS46" s="16"/>
+      <c r="AT46" s="16"/>
+      <c r="AU46" s="16"/>
+      <c r="AV46" s="16"/>
+      <c r="AW46" s="16"/>
+      <c r="AX46" s="16"/>
+      <c r="AY46" s="16"/>
+      <c r="AZ46" s="16"/>
+      <c r="BA46" s="16"/>
+      <c r="BB46" s="16"/>
+      <c r="BC46" s="16"/>
+      <c r="BD46" s="16"/>
+      <c r="BE46" s="16"/>
+      <c r="BF46" s="16"/>
+      <c r="BG46" s="16"/>
+      <c r="BH46" s="16"/>
+      <c r="BI46" s="16"/>
+      <c r="BJ46" s="16"/>
+      <c r="BK46" s="16"/>
+    </row>
+    <row r="47" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="4"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="O5:T5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:D35">
+  <conditionalFormatting sqref="D8:D45">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7950,18 +8780,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:BK10 H17:BK35 I11:BK11 I13:BK14 I12:N12 P12:BK12 H15:N16 P15:BK16">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="H10:BK10 H20:BK45 I11:BK11 I13:BK14 I12:N12 P12:BK12 H15:N19 P15:BK19">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>H$7&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:BK10 H17:BK35 I11:BK11 I13:BK14 I12:N12 P12:BK12 H15:N16 P15:BK16">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="H9:BK10 H20:BK45 I11:BK11 I13:BK14 I12:N12 P12:BK12 H15:N19 P15:BK19">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7976,7 +8806,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les mois des dates de la ligne 6 affichés de H6 à BK6. Jours du mois dans la ligne 7 à partir de H7. Ne modifiez pas ces cellules. Elles sont mises à jour automatiquement en fonction de la date de début et de l’incrément de la barre de défilement._x000a_" sqref="A7" xr:uid="{0060E070-32DC-488F-A8DB-C79290723BA0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="En-têtes planning de projet dans B8. H8 à BK8 possèdent la première lettre de chaque jour de la semaine pour la date ci-dessus. Tous les diagrammes chronologiques sont générés automatiquement en fonction de la date de début et du nombre de jours entrés. " sqref="A8" xr:uid="{6940A8A8-4DCE-454B-AD25-2A74833F6BB0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Informations sur le projet " prompt="De B10 à F10, entrez la description du jalon, la progression de la tâche sous forme d’un pourcentage d’achèvement, la date de début et durée de la tâche en nombre de jours et attribuez l’élément. Le diagramme de Gantt est mis à jour automatiquement. " sqref="A10" xr:uid="{99522C2E-4FCB-4613-9F6E-4199F6F59758}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette ligne marque la fin des données de jalon de Gantt. N’ENTREZ rien dans cette ligne. _x000a__x000a_Pour ajouter des éléments, insérez de nouvelles lignes au-dessus de celle-ci." sqref="A36" xr:uid="{6E30C851-4384-4BC7-A403-BF5CFB36A6BE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette ligne marque la fin des données de jalon de Gantt. N’ENTREZ rien dans cette ligne. _x000a__x000a_Pour ajouter des éléments, insérez de nouvelles lignes au-dessus de celle-ci." sqref="A46" xr:uid="{6E30C851-4384-4BC7-A403-BF5CFB36A6BE}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -8033,7 +8863,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D8:D35</xm:sqref>
+          <xm:sqref>D8:D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{541F8E9A-B35A-48E2-8231-2B95FF5B4F9D}">
@@ -8052,7 +8882,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H9:BK10 H17:BK35 I11:BK11 I13:BK14 I12:N12 P12:BK12 H15:N16 P15:BK16</xm:sqref>
+          <xm:sqref>H9:BK10 H20:BK45 I11:BK11 I13:BK14 I12:N12 P12:BK12 H15:N19 P15:BK19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{9FDC8C04-5CFF-4B9F-9AD4-CE8D13672C6B}">
@@ -8080,6 +8910,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8355,25 +9204,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8384,6 +9214,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0BFDC8-3FC5-4B1A-A529-197CCE587781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51416DF5-5CF4-40FC-9B7A-D5A4568A710D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8404,18 +9246,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0BFDC8-3FC5-4B1A-A529-197CCE587781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69D04340-DBA0-4EBA-8015-0619D6CE3F7C}">
   <ds:schemaRefs>

--- a/Jalon 1/Diagramme de Gantt de suivi de date1.xlsx
+++ b/Jalon 1/Diagramme de Gantt de suivi de date1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E10688-CBBB-4C5B-82D5-09E8396F8DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91047C27-1C44-4406-8585-F59E7BAB4557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vert" sheetId="18" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Date de début du projet :</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">PROJET AP </t>
+  </si>
+  <si>
+    <t>(modification à faire)</t>
   </si>
 </sst>
 </file>
@@ -1288,6 +1291,13 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="8" tint="-0.499984740745262"/>
       </font>
@@ -1327,13 +1337,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1660,7 +1663,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EE7DA96-2148-4820-AB9C-230AD0CA6702}" name="Jalons34" displayName="Jalons34" ref="B8:F45" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EE7DA96-2148-4820-AB9C-230AD0CA6702}" name="Jalons34" displayName="Jalons34" ref="B8:F45" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="B8:F45" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1952,8 +1955,8 @@
   </sheetPr>
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6198,7 +6201,9 @@
     </row>
     <row r="31" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
-      <c r="B31" s="45"/>
+      <c r="B31" s="45" t="s">
+        <v>53</v>
+      </c>
       <c r="C31" s="11"/>
       <c r="D31" s="39"/>
       <c r="E31" s="38"/>
@@ -8781,17 +8786,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK10 H20:BK45 I11:BK11 I13:BK14 I12:N12 P12:BK12 H15:N19 P15:BK19">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>H$7&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK10 H20:BK45 I11:BK11 I13:BK14 I12:N12 P12:BK12 H15:N19 P15:BK19">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8910,25 +8915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9204,6 +9190,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9214,18 +9219,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0BFDC8-3FC5-4B1A-A529-197CCE587781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51416DF5-5CF4-40FC-9B7A-D5A4568A710D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9246,6 +9239,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0BFDC8-3FC5-4B1A-A529-197CCE587781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69D04340-DBA0-4EBA-8015-0619D6CE3F7C}">
   <ds:schemaRefs>
